--- a/IE407/Homework 2/solution.xlsx
+++ b/IE407/Homework 2/solution.xlsx
@@ -8,82 +8,92 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emre\GitHub\semester5\IE407\Homework 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11CF234-2ED2-4F57-A7ED-70610FD6B3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFDC1C0-20BF-4F4E-9BC1-9055AA6140DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="0" windowWidth="15468" windowHeight="9420" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Answer Report b" sheetId="5" r:id="rId1"/>
     <sheet name="Answer Report a" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Answer Report c" sheetId="11" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">Sheet1!$K$13:$M$17,Sheet1!$R$11:$U$13,Sheet1!$AD$14:$AD$21</definedName>
-    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">Sheet1!$AD$14:$AD$21</definedName>
-    <definedName name="solver_lhs10" localSheetId="2" hidden="1">Sheet1!$V$12</definedName>
-    <definedName name="solver_lhs11" localSheetId="2" hidden="1">Sheet1!$V$13</definedName>
-    <definedName name="solver_lhs12" localSheetId="2" hidden="1">Sheet1!$V$13</definedName>
-    <definedName name="solver_lhs13" localSheetId="2" hidden="1">Sheet1!$V$13</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">Sheet1!$K$18:$M$18</definedName>
-    <definedName name="solver_lhs3" localSheetId="2" hidden="1">Sheet1!$N$13</definedName>
-    <definedName name="solver_lhs4" localSheetId="2" hidden="1">Sheet1!$N$14</definedName>
-    <definedName name="solver_lhs5" localSheetId="2" hidden="1">Sheet1!$N$15</definedName>
-    <definedName name="solver_lhs6" localSheetId="2" hidden="1">Sheet1!$N$16</definedName>
-    <definedName name="solver_lhs7" localSheetId="2" hidden="1">Sheet1!$N$17</definedName>
-    <definedName name="solver_lhs8" localSheetId="2" hidden="1">Sheet1!$R$14:$U$14</definedName>
-    <definedName name="solver_lhs9" localSheetId="2" hidden="1">Sheet1!$V$11</definedName>
-    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">11</definedName>
-    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">Sheet1!$C$9</definedName>
-    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="2" hidden="1">5</definedName>
-    <definedName name="solver_rel10" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel11" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel12" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel13" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel5" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel6" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel7" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel8" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_rel9" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">"binary"</definedName>
-    <definedName name="solver_rhs10" localSheetId="2" hidden="1">Sheet1!$AD$20*1100</definedName>
-    <definedName name="solver_rhs11" localSheetId="2" hidden="1">Sheet1!$AD$21*1100</definedName>
-    <definedName name="solver_rhs12" localSheetId="2" hidden="1">Sheet1!$AD$21*1100</definedName>
-    <definedName name="solver_rhs13" localSheetId="2" hidden="1">Sheet1!$AD$21*1100</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">Sheet1!$V$11:$V$13</definedName>
-    <definedName name="solver_rhs3" localSheetId="2" hidden="1">Sheet1!$C$4*Sheet1!$AD$14</definedName>
-    <definedName name="solver_rhs4" localSheetId="2" hidden="1">Sheet1!$D$4*Sheet1!$AD$15</definedName>
-    <definedName name="solver_rhs5" localSheetId="2" hidden="1">Sheet1!$E$4*Sheet1!$AD$16</definedName>
-    <definedName name="solver_rhs6" localSheetId="2" hidden="1">Sheet1!$F$4*Sheet1!$AD$17</definedName>
-    <definedName name="solver_rhs7" localSheetId="2" hidden="1">Sheet1!$G$4*Sheet1!$AD$18</definedName>
-    <definedName name="solver_rhs8" localSheetId="2" hidden="1">Sheet1!$X$4:$AA$4</definedName>
-    <definedName name="solver_rhs9" localSheetId="2" hidden="1">Sheet1!$AD$19*1100</definedName>
-    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">Sheet1!$R$11:$U$13,Sheet1!$AD$24:$AD$27,Sheet1!$AD$30:$AD$33,Sheet1!$K$13:$M$17,Sheet1!$AD$14:$AD$21</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Sheet1!$AD$14:$AD$21</definedName>
+    <definedName name="solver_lhs10" localSheetId="3" hidden="1">Sheet1!$N$16</definedName>
+    <definedName name="solver_lhs11" localSheetId="3" hidden="1">Sheet1!$N$17</definedName>
+    <definedName name="solver_lhs12" localSheetId="3" hidden="1">Sheet1!$R$14:$U$14</definedName>
+    <definedName name="solver_lhs13" localSheetId="3" hidden="1">Sheet1!$V$11</definedName>
+    <definedName name="solver_lhs14" localSheetId="3" hidden="1">Sheet1!$V$12</definedName>
+    <definedName name="solver_lhs15" localSheetId="3" hidden="1">Sheet1!$V$13</definedName>
+    <definedName name="solver_lhs16" localSheetId="3" hidden="1">Sheet1!$V$13</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Sheet1!$AD$24:$AD$27</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">Sheet1!$AD$30:$AD$33</definedName>
+    <definedName name="solver_lhs4" localSheetId="3" hidden="1">Sheet1!$AD$30:$AD$33</definedName>
+    <definedName name="solver_lhs5" localSheetId="3" hidden="1">Sheet1!$AD$35:$AD$38</definedName>
+    <definedName name="solver_lhs6" localSheetId="3" hidden="1">Sheet1!$K$18:$M$18</definedName>
+    <definedName name="solver_lhs7" localSheetId="3" hidden="1">Sheet1!$N$13</definedName>
+    <definedName name="solver_lhs8" localSheetId="3" hidden="1">Sheet1!$N$14</definedName>
+    <definedName name="solver_lhs9" localSheetId="3" hidden="1">Sheet1!$N$15</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">15</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">Sheet1!$C$9</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">5</definedName>
+    <definedName name="solver_rel10" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel11" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel12" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel13" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel14" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel15" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel16" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">5</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel6" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel7" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel8" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel9" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">"binary"</definedName>
+    <definedName name="solver_rhs10" localSheetId="3" hidden="1">Sheet1!$F$4*Sheet1!$AD$17</definedName>
+    <definedName name="solver_rhs11" localSheetId="3" hidden="1">Sheet1!$G$4*Sheet1!$AD$18</definedName>
+    <definedName name="solver_rhs12" localSheetId="3" hidden="1">Sheet1!$X$4:$AA$4</definedName>
+    <definedName name="solver_rhs13" localSheetId="3" hidden="1">Sheet1!$AD$19*1100</definedName>
+    <definedName name="solver_rhs14" localSheetId="3" hidden="1">Sheet1!$AD$20*1100</definedName>
+    <definedName name="solver_rhs15" localSheetId="3" hidden="1">Sheet1!$AD$21*1100</definedName>
+    <definedName name="solver_rhs16" localSheetId="3" hidden="1">Sheet1!$AD$21*1100</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">"binary"</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">Sheet1!$AF$24:$AF$27</definedName>
+    <definedName name="solver_rhs4" localSheetId="3" hidden="1">Sheet1!$AE$24:$AE$27</definedName>
+    <definedName name="solver_rhs5" localSheetId="3" hidden="1">Sheet1!$R$11:$U$11</definedName>
+    <definedName name="solver_rhs6" localSheetId="3" hidden="1">Sheet1!$V$11:$V$13</definedName>
+    <definedName name="solver_rhs7" localSheetId="3" hidden="1">Sheet1!$C$4*Sheet1!$AD$14</definedName>
+    <definedName name="solver_rhs8" localSheetId="3" hidden="1">Sheet1!$D$4*Sheet1!$AD$15</definedName>
+    <definedName name="solver_rhs9" localSheetId="3" hidden="1">Sheet1!$E$4*Sheet1!$AD$16</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -128,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="218">
   <si>
     <t>Plant 1</t>
   </si>
@@ -653,6 +663,135 @@
   </si>
   <si>
     <t>Iterations: 2 Subproblems: 4</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>s4</t>
+  </si>
+  <si>
+    <t>$AD$24</t>
+  </si>
+  <si>
+    <t>s1 1/0</t>
+  </si>
+  <si>
+    <t>$AD$25</t>
+  </si>
+  <si>
+    <t>s2 1/0</t>
+  </si>
+  <si>
+    <t>$AD$26</t>
+  </si>
+  <si>
+    <t>s3 1/0</t>
+  </si>
+  <si>
+    <t>$AD$27</t>
+  </si>
+  <si>
+    <t>s4 1/0</t>
+  </si>
+  <si>
+    <t>$AD$24:$AD$27=Binary</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>$AD$30</t>
+  </si>
+  <si>
+    <t>t1 1/0</t>
+  </si>
+  <si>
+    <t>$AD$31</t>
+  </si>
+  <si>
+    <t>t2 1/0</t>
+  </si>
+  <si>
+    <t>$AD$32</t>
+  </si>
+  <si>
+    <t>t3 1/0</t>
+  </si>
+  <si>
+    <t>$AD$33</t>
+  </si>
+  <si>
+    <t>t4 1/0</t>
+  </si>
+  <si>
+    <t>$AD$30&lt;=$AF$24</t>
+  </si>
+  <si>
+    <t>$AD$31&lt;=$AF$25</t>
+  </si>
+  <si>
+    <t>$AD$32&lt;=$AF$26</t>
+  </si>
+  <si>
+    <t>$AD$33&lt;=$AF$27</t>
+  </si>
+  <si>
+    <t>$AD$30&gt;=$AE$24</t>
+  </si>
+  <si>
+    <t>$AD$31&gt;=$AE$25</t>
+  </si>
+  <si>
+    <t>$AD$32&gt;=$AE$26</t>
+  </si>
+  <si>
+    <t>$AD$33&gt;=$AE$27</t>
+  </si>
+  <si>
+    <t>$AD$35</t>
+  </si>
+  <si>
+    <t>$AD$35=$R$11</t>
+  </si>
+  <si>
+    <t>$AD$36</t>
+  </si>
+  <si>
+    <t>$AD$36=$S$11</t>
+  </si>
+  <si>
+    <t>$AD$37</t>
+  </si>
+  <si>
+    <t>$AD$37=$T$11</t>
+  </si>
+  <si>
+    <t>$AD$38</t>
+  </si>
+  <si>
+    <t>$AD$38=$U$11</t>
+  </si>
+  <si>
+    <t>Report Created: 12/12/2022 01:19:39</t>
+  </si>
+  <si>
+    <t>Solution Time: 0.094 Seconds.</t>
   </si>
 </sst>
 </file>
@@ -859,7 +998,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -872,6 +1011,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -884,21 +1038,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -906,7 +1045,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1203,50 +1342,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="10" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+      <c r="A6" s="10"/>
       <c r="B6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="10"/>
       <c r="B8" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1266,30 +1405,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="13">
         <v>54090</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="13">
         <v>54090</v>
       </c>
     </row>
@@ -1299,614 +1438,614 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="15">
         <v>8.5265128291212022E-14</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="15">
         <v>8.5265128291212022E-14</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="27">
-        <v>0</v>
-      </c>
-      <c r="E22" s="27">
-        <v>0</v>
-      </c>
-      <c r="F22" s="25" t="s">
+      <c r="D22" s="15">
+        <v>0</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="27">
-        <v>0</v>
-      </c>
-      <c r="E23" s="27">
-        <v>0</v>
-      </c>
-      <c r="F23" s="25" t="s">
+      <c r="D23" s="15">
+        <v>0</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="27">
-        <v>0</v>
-      </c>
-      <c r="E24" s="27">
-        <v>0</v>
-      </c>
-      <c r="F24" s="25" t="s">
+      <c r="D24" s="15">
+        <v>0</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="15">
         <v>200.00000000000003</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="15">
         <v>200.00000000000003</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="27">
-        <v>0</v>
-      </c>
-      <c r="E26" s="27">
-        <v>0</v>
-      </c>
-      <c r="F26" s="25" t="s">
+      <c r="D26" s="15">
+        <v>0</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0</v>
+      </c>
+      <c r="F26" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="27">
-        <v>0</v>
-      </c>
-      <c r="E27" s="27">
-        <v>0</v>
-      </c>
-      <c r="F27" s="25" t="s">
+      <c r="D27" s="15">
+        <v>0</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0</v>
+      </c>
+      <c r="F27" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="15">
         <v>50</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="15">
         <v>50</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="15">
         <v>250</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="15">
         <v>250</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="15">
         <v>200</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="15">
         <v>200</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="27">
-        <v>0</v>
-      </c>
-      <c r="E31" s="27">
-        <v>0</v>
-      </c>
-      <c r="F31" s="25" t="s">
+      <c r="D31" s="15">
+        <v>0</v>
+      </c>
+      <c r="E31" s="15">
+        <v>0</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="27">
-        <v>0</v>
-      </c>
-      <c r="E32" s="27">
-        <v>0</v>
-      </c>
-      <c r="F32" s="25" t="s">
+      <c r="D32" s="15">
+        <v>0</v>
+      </c>
+      <c r="E32" s="15">
+        <v>0</v>
+      </c>
+      <c r="F32" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="15">
         <v>350.00000000000006</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="15">
         <v>350.00000000000006</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="15">
         <v>49.999999999999972</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="15">
         <v>49.999999999999972</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="27">
-        <v>0</v>
-      </c>
-      <c r="E35" s="27">
-        <v>0</v>
-      </c>
-      <c r="F35" s="25" t="s">
+      <c r="D35" s="15">
+        <v>0</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0</v>
+      </c>
+      <c r="F35" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="27">
+      <c r="D36" s="15">
         <v>200.00000000000003</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="15">
         <v>200</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="27">
-        <v>0</v>
-      </c>
-      <c r="E37" s="27">
-        <v>0</v>
-      </c>
-      <c r="F37" s="25" t="s">
+      <c r="D37" s="15">
+        <v>0</v>
+      </c>
+      <c r="E37" s="15">
+        <v>0</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="27">
-        <v>0</v>
-      </c>
-      <c r="E38" s="27">
-        <v>0</v>
-      </c>
-      <c r="F38" s="25" t="s">
+      <c r="D38" s="15">
+        <v>0</v>
+      </c>
+      <c r="E38" s="15">
+        <v>0</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="27">
+      <c r="D39" s="15">
         <v>350</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="15">
         <v>350</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="27">
-        <v>0</v>
-      </c>
-      <c r="E40" s="27">
-        <v>0</v>
-      </c>
-      <c r="F40" s="25" t="s">
+      <c r="D40" s="15">
+        <v>0</v>
+      </c>
+      <c r="E40" s="15">
+        <v>0</v>
+      </c>
+      <c r="F40" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="27">
+      <c r="D41" s="15">
         <v>300</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="15">
         <v>300</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="27">
-        <v>0</v>
-      </c>
-      <c r="E42" s="27">
-        <v>0</v>
-      </c>
-      <c r="F42" s="25" t="s">
+      <c r="D42" s="15">
+        <v>0</v>
+      </c>
+      <c r="E42" s="15">
+        <v>0</v>
+      </c>
+      <c r="F42" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="27">
-        <v>0</v>
-      </c>
-      <c r="E43" s="27">
-        <v>0</v>
-      </c>
-      <c r="F43" s="25" t="s">
+      <c r="D43" s="15">
+        <v>0</v>
+      </c>
+      <c r="E43" s="15">
+        <v>0</v>
+      </c>
+      <c r="F43" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="27">
-        <v>0</v>
-      </c>
-      <c r="E44" s="27">
-        <v>0</v>
-      </c>
-      <c r="F44" s="25" t="s">
+      <c r="D44" s="15">
+        <v>0</v>
+      </c>
+      <c r="E44" s="15">
+        <v>0</v>
+      </c>
+      <c r="F44" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="27">
-        <v>0</v>
-      </c>
-      <c r="E45" s="27">
-        <v>0</v>
-      </c>
-      <c r="F45" s="25" t="s">
+      <c r="D45" s="15">
+        <v>0</v>
+      </c>
+      <c r="E45" s="15">
+        <v>0</v>
+      </c>
+      <c r="F45" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="27">
+      <c r="D46" s="15">
         <v>250</v>
       </c>
-      <c r="E46" s="27">
+      <c r="E46" s="15">
         <v>250</v>
       </c>
-      <c r="F46" s="25" t="s">
+      <c r="F46" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="27">
-        <v>0</v>
-      </c>
-      <c r="E47" s="27">
-        <v>0</v>
-      </c>
-      <c r="F47" s="25" t="s">
+      <c r="D47" s="15">
+        <v>0</v>
+      </c>
+      <c r="E47" s="15">
+        <v>0</v>
+      </c>
+      <c r="F47" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="27">
-        <v>0</v>
-      </c>
-      <c r="E48" s="27">
-        <v>0</v>
-      </c>
-      <c r="F48" s="25" t="s">
+      <c r="D48" s="15">
+        <v>0</v>
+      </c>
+      <c r="E48" s="15">
+        <v>0</v>
+      </c>
+      <c r="F48" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D49" s="27">
-        <v>1</v>
-      </c>
-      <c r="E49" s="27">
-        <v>1</v>
-      </c>
-      <c r="F49" s="25" t="s">
+      <c r="D49" s="15">
+        <v>1</v>
+      </c>
+      <c r="E49" s="15">
+        <v>1</v>
+      </c>
+      <c r="F49" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="27">
-        <v>1</v>
-      </c>
-      <c r="E50" s="27">
-        <v>1</v>
-      </c>
-      <c r="F50" s="25" t="s">
+      <c r="D50" s="15">
+        <v>1</v>
+      </c>
+      <c r="E50" s="15">
+        <v>1</v>
+      </c>
+      <c r="F50" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D51" s="27">
-        <v>1</v>
-      </c>
-      <c r="E51" s="27">
-        <v>1</v>
-      </c>
-      <c r="F51" s="25" t="s">
+      <c r="D51" s="15">
+        <v>1</v>
+      </c>
+      <c r="E51" s="15">
+        <v>1</v>
+      </c>
+      <c r="F51" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D52" s="27">
-        <v>1</v>
-      </c>
-      <c r="E52" s="27">
-        <v>1</v>
-      </c>
-      <c r="F52" s="25" t="s">
+      <c r="D52" s="15">
+        <v>1</v>
+      </c>
+      <c r="E52" s="15">
+        <v>1</v>
+      </c>
+      <c r="F52" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D53" s="27">
-        <v>1</v>
-      </c>
-      <c r="E53" s="27">
-        <v>1</v>
-      </c>
-      <c r="F53" s="25" t="s">
+      <c r="D53" s="15">
+        <v>1</v>
+      </c>
+      <c r="E53" s="15">
+        <v>1</v>
+      </c>
+      <c r="F53" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D54" s="27">
-        <v>1</v>
-      </c>
-      <c r="E54" s="27">
-        <v>1</v>
-      </c>
-      <c r="F54" s="25" t="s">
+      <c r="D54" s="15">
+        <v>1</v>
+      </c>
+      <c r="E54" s="15">
+        <v>1</v>
+      </c>
+      <c r="F54" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D55" s="26">
-        <v>1</v>
-      </c>
-      <c r="E55" s="26">
-        <v>1</v>
-      </c>
-      <c r="F55" s="23" t="s">
+      <c r="D55" s="13">
+        <v>1</v>
+      </c>
+      <c r="E55" s="13">
+        <v>1</v>
+      </c>
+      <c r="F55" s="13" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1916,334 +2055,334 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E59" s="24" t="s">
+      <c r="E59" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G59" s="24" t="s">
+      <c r="G59" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="D60" s="27">
+      <c r="D60" s="15">
         <v>550.00000000000011</v>
       </c>
-      <c r="E60" s="25" t="s">
+      <c r="E60" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="F60" s="25" t="s">
+      <c r="F60" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G60" s="25">
+      <c r="G60" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="D61" s="27">
+      <c r="D61" s="15">
         <v>300</v>
       </c>
-      <c r="E61" s="25" t="s">
+      <c r="E61" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="F61" s="25" t="s">
+      <c r="F61" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G61" s="25">
+      <c r="G61" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D62" s="27">
+      <c r="D62" s="15">
         <v>250</v>
       </c>
-      <c r="E62" s="25" t="s">
+      <c r="E62" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="F62" s="25" t="s">
+      <c r="F62" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G62" s="25">
+      <c r="G62" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D63" s="27">
+      <c r="D63" s="15">
         <v>8.5265128291212022E-14</v>
       </c>
-      <c r="E63" s="25" t="s">
+      <c r="E63" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="F63" s="25" t="s">
+      <c r="F63" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G63" s="25">
+      <c r="G63" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D64" s="27">
+      <c r="D64" s="15">
         <v>200.00000000000003</v>
       </c>
-      <c r="E64" s="25" t="s">
+      <c r="E64" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="F64" s="25" t="s">
+      <c r="F64" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G64" s="25">
+      <c r="G64" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D65" s="27">
+      <c r="D65" s="15">
         <v>300</v>
       </c>
-      <c r="E65" s="25" t="s">
+      <c r="E65" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="F65" s="25" t="s">
+      <c r="F65" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G65" s="25">
+      <c r="G65" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D66" s="27">
+      <c r="D66" s="15">
         <v>200</v>
       </c>
-      <c r="E66" s="25" t="s">
+      <c r="E66" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="F66" s="25" t="s">
+      <c r="F66" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G66" s="25">
+      <c r="G66" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D67" s="27">
+      <c r="D67" s="15">
         <v>400</v>
       </c>
-      <c r="E67" s="25" t="s">
+      <c r="E67" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="F67" s="25" t="s">
+      <c r="F67" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G67" s="25">
+      <c r="G67" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D68" s="27">
+      <c r="D68" s="15">
         <v>200</v>
       </c>
-      <c r="E68" s="25" t="s">
+      <c r="E68" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="F68" s="25" t="s">
+      <c r="F68" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G68" s="27">
+      <c r="G68" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="C69" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D69" s="27">
+      <c r="D69" s="15">
         <v>300</v>
       </c>
-      <c r="E69" s="25" t="s">
+      <c r="E69" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="F69" s="25" t="s">
+      <c r="F69" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G69" s="27">
+      <c r="G69" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="D70" s="27">
+      <c r="D70" s="15">
         <v>250</v>
       </c>
-      <c r="E70" s="25" t="s">
+      <c r="E70" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="F70" s="25" t="s">
+      <c r="F70" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G70" s="27">
+      <c r="G70" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D71" s="27">
+      <c r="D71" s="15">
         <v>350</v>
       </c>
-      <c r="E71" s="25" t="s">
+      <c r="E71" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="F71" s="25" t="s">
+      <c r="F71" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G71" s="27">
+      <c r="G71" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C72" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D72" s="27">
+      <c r="D72" s="15">
         <v>550</v>
       </c>
-      <c r="E72" s="25" t="s">
+      <c r="E72" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="F72" s="25" t="s">
+      <c r="F72" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="G72" s="25">
+      <c r="G72" s="15">
         <v>550</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B73" s="25" t="s">
+      <c r="B73" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D73" s="27">
+      <c r="D73" s="15">
         <v>300</v>
       </c>
-      <c r="E73" s="25" t="s">
+      <c r="E73" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="F73" s="25" t="s">
+      <c r="F73" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="G73" s="25">
+      <c r="G73" s="15">
         <v>800</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B74" s="25" t="s">
+      <c r="B74" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="C74" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="D74" s="27">
+      <c r="D74" s="15">
         <v>250</v>
       </c>
-      <c r="E74" s="25" t="s">
+      <c r="E74" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="F74" s="25" t="s">
+      <c r="F74" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="G74" s="25">
+      <c r="G74" s="15">
         <v>850</v>
       </c>
     </row>
     <row r="75" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2268,50 +2407,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+      <c r="A6" s="10"/>
       <c r="B6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="10"/>
       <c r="B8" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2331,30 +2470,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="13">
         <v>53800</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="13">
         <v>53800</v>
       </c>
     </row>
@@ -2364,614 +2503,614 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="15">
         <v>8.5265128291212022E-14</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="15">
         <v>8.5265128291212022E-14</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="27">
-        <v>0</v>
-      </c>
-      <c r="E22" s="27">
-        <v>0</v>
-      </c>
-      <c r="F22" s="25" t="s">
+      <c r="D22" s="15">
+        <v>0</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="27">
-        <v>0</v>
-      </c>
-      <c r="E23" s="27">
-        <v>0</v>
-      </c>
-      <c r="F23" s="25" t="s">
+      <c r="D23" s="15">
+        <v>0</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="27">
-        <v>0</v>
-      </c>
-      <c r="E24" s="27">
-        <v>0</v>
-      </c>
-      <c r="F24" s="25" t="s">
+      <c r="D24" s="15">
+        <v>0</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="15">
         <v>200.00000000000003</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="15">
         <v>200</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="27">
-        <v>0</v>
-      </c>
-      <c r="E26" s="27">
-        <v>0</v>
-      </c>
-      <c r="F26" s="25" t="s">
+      <c r="D26" s="15">
+        <v>0</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0</v>
+      </c>
+      <c r="F26" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="27">
-        <v>0</v>
-      </c>
-      <c r="E27" s="27">
-        <v>0</v>
-      </c>
-      <c r="F27" s="25" t="s">
+      <c r="D27" s="15">
+        <v>0</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0</v>
+      </c>
+      <c r="F27" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="15">
         <v>50</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="15">
         <v>50</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="15">
         <v>250</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="15">
         <v>250</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="15">
         <v>200</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="15">
         <v>200</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="27">
-        <v>0</v>
-      </c>
-      <c r="E31" s="27">
-        <v>0</v>
-      </c>
-      <c r="F31" s="25" t="s">
+      <c r="D31" s="15">
+        <v>0</v>
+      </c>
+      <c r="E31" s="15">
+        <v>0</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="27">
-        <v>0</v>
-      </c>
-      <c r="E32" s="27">
-        <v>0</v>
-      </c>
-      <c r="F32" s="25" t="s">
+      <c r="D32" s="15">
+        <v>0</v>
+      </c>
+      <c r="E32" s="15">
+        <v>0</v>
+      </c>
+      <c r="F32" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="15">
         <v>350.00000000000006</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="15">
         <v>350</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="15">
         <v>49.999999999999972</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="15">
         <v>50</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="27">
-        <v>0</v>
-      </c>
-      <c r="E35" s="27">
-        <v>0</v>
-      </c>
-      <c r="F35" s="25" t="s">
+      <c r="D35" s="15">
+        <v>0</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0</v>
+      </c>
+      <c r="F35" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="27">
+      <c r="D36" s="15">
         <v>200</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="15">
         <v>200</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="27">
-        <v>0</v>
-      </c>
-      <c r="E37" s="27">
-        <v>0</v>
-      </c>
-      <c r="F37" s="25" t="s">
+      <c r="D37" s="15">
+        <v>0</v>
+      </c>
+      <c r="E37" s="15">
+        <v>0</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="27">
-        <v>0</v>
-      </c>
-      <c r="E38" s="27">
-        <v>0</v>
-      </c>
-      <c r="F38" s="25" t="s">
+      <c r="D38" s="15">
+        <v>0</v>
+      </c>
+      <c r="E38" s="15">
+        <v>0</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="27">
+      <c r="D39" s="15">
         <v>350</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="15">
         <v>350</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="27">
-        <v>0</v>
-      </c>
-      <c r="E40" s="27">
-        <v>0</v>
-      </c>
-      <c r="F40" s="25" t="s">
+      <c r="D40" s="15">
+        <v>0</v>
+      </c>
+      <c r="E40" s="15">
+        <v>0</v>
+      </c>
+      <c r="F40" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="27">
+      <c r="D41" s="15">
         <v>300</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="15">
         <v>300</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="27">
-        <v>0</v>
-      </c>
-      <c r="E42" s="27">
-        <v>0</v>
-      </c>
-      <c r="F42" s="25" t="s">
+      <c r="D42" s="15">
+        <v>0</v>
+      </c>
+      <c r="E42" s="15">
+        <v>0</v>
+      </c>
+      <c r="F42" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="27">
-        <v>0</v>
-      </c>
-      <c r="E43" s="27">
-        <v>0</v>
-      </c>
-      <c r="F43" s="25" t="s">
+      <c r="D43" s="15">
+        <v>0</v>
+      </c>
+      <c r="E43" s="15">
+        <v>0</v>
+      </c>
+      <c r="F43" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="27">
-        <v>0</v>
-      </c>
-      <c r="E44" s="27">
-        <v>0</v>
-      </c>
-      <c r="F44" s="25" t="s">
+      <c r="D44" s="15">
+        <v>0</v>
+      </c>
+      <c r="E44" s="15">
+        <v>0</v>
+      </c>
+      <c r="F44" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="27">
-        <v>0</v>
-      </c>
-      <c r="E45" s="27">
-        <v>0</v>
-      </c>
-      <c r="F45" s="25" t="s">
+      <c r="D45" s="15">
+        <v>0</v>
+      </c>
+      <c r="E45" s="15">
+        <v>0</v>
+      </c>
+      <c r="F45" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="27">
+      <c r="D46" s="15">
         <v>250</v>
       </c>
-      <c r="E46" s="27">
+      <c r="E46" s="15">
         <v>250</v>
       </c>
-      <c r="F46" s="25" t="s">
+      <c r="F46" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="27">
-        <v>0</v>
-      </c>
-      <c r="E47" s="27">
-        <v>0</v>
-      </c>
-      <c r="F47" s="25" t="s">
+      <c r="D47" s="15">
+        <v>0</v>
+      </c>
+      <c r="E47" s="15">
+        <v>0</v>
+      </c>
+      <c r="F47" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="27">
-        <v>1</v>
-      </c>
-      <c r="E48" s="27">
-        <v>0</v>
-      </c>
-      <c r="F48" s="25" t="s">
+      <c r="D48" s="15">
+        <v>1</v>
+      </c>
+      <c r="E48" s="15">
+        <v>0</v>
+      </c>
+      <c r="F48" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D49" s="27">
-        <v>1</v>
-      </c>
-      <c r="E49" s="27">
-        <v>1</v>
-      </c>
-      <c r="F49" s="25" t="s">
+      <c r="D49" s="15">
+        <v>1</v>
+      </c>
+      <c r="E49" s="15">
+        <v>1</v>
+      </c>
+      <c r="F49" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="27">
-        <v>1</v>
-      </c>
-      <c r="E50" s="27">
-        <v>1</v>
-      </c>
-      <c r="F50" s="25" t="s">
+      <c r="D50" s="15">
+        <v>1</v>
+      </c>
+      <c r="E50" s="15">
+        <v>1</v>
+      </c>
+      <c r="F50" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D51" s="27">
-        <v>1</v>
-      </c>
-      <c r="E51" s="27">
-        <v>1</v>
-      </c>
-      <c r="F51" s="25" t="s">
+      <c r="D51" s="15">
+        <v>1</v>
+      </c>
+      <c r="E51" s="15">
+        <v>1</v>
+      </c>
+      <c r="F51" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D52" s="27">
-        <v>1</v>
-      </c>
-      <c r="E52" s="27">
-        <v>1</v>
-      </c>
-      <c r="F52" s="25" t="s">
+      <c r="D52" s="15">
+        <v>1</v>
+      </c>
+      <c r="E52" s="15">
+        <v>1</v>
+      </c>
+      <c r="F52" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D53" s="27">
-        <v>1</v>
-      </c>
-      <c r="E53" s="27">
-        <v>1</v>
-      </c>
-      <c r="F53" s="25" t="s">
+      <c r="D53" s="15">
+        <v>1</v>
+      </c>
+      <c r="E53" s="15">
+        <v>1</v>
+      </c>
+      <c r="F53" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D54" s="27">
-        <v>1</v>
-      </c>
-      <c r="E54" s="27">
-        <v>1</v>
-      </c>
-      <c r="F54" s="25" t="s">
+      <c r="D54" s="15">
+        <v>1</v>
+      </c>
+      <c r="E54" s="15">
+        <v>1</v>
+      </c>
+      <c r="F54" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D55" s="26">
-        <v>1</v>
-      </c>
-      <c r="E55" s="26">
-        <v>1</v>
-      </c>
-      <c r="F55" s="23" t="s">
+      <c r="D55" s="13">
+        <v>1</v>
+      </c>
+      <c r="E55" s="13">
+        <v>1</v>
+      </c>
+      <c r="F55" s="13" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2981,334 +3120,334 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E59" s="24" t="s">
+      <c r="E59" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G59" s="24" t="s">
+      <c r="G59" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="D60" s="27">
+      <c r="D60" s="15">
         <v>550.00000000000011</v>
       </c>
-      <c r="E60" s="25" t="s">
+      <c r="E60" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="F60" s="25" t="s">
+      <c r="F60" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G60" s="25">
+      <c r="G60" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="D61" s="27">
+      <c r="D61" s="15">
         <v>300</v>
       </c>
-      <c r="E61" s="25" t="s">
+      <c r="E61" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="F61" s="25" t="s">
+      <c r="F61" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G61" s="25">
+      <c r="G61" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D62" s="27">
+      <c r="D62" s="15">
         <v>250</v>
       </c>
-      <c r="E62" s="25" t="s">
+      <c r="E62" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="F62" s="25" t="s">
+      <c r="F62" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G62" s="25">
+      <c r="G62" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D63" s="27">
+      <c r="D63" s="15">
         <v>8.5265128291212022E-14</v>
       </c>
-      <c r="E63" s="25" t="s">
+      <c r="E63" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="F63" s="25" t="s">
+      <c r="F63" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G63" s="25">
+      <c r="G63" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D64" s="27">
+      <c r="D64" s="15">
         <v>200</v>
       </c>
-      <c r="E64" s="25" t="s">
+      <c r="E64" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="F64" s="25" t="s">
+      <c r="F64" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G64" s="25">
+      <c r="G64" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D65" s="27">
+      <c r="D65" s="15">
         <v>300</v>
       </c>
-      <c r="E65" s="25" t="s">
+      <c r="E65" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="F65" s="25" t="s">
+      <c r="F65" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G65" s="25">
+      <c r="G65" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D66" s="27">
+      <c r="D66" s="15">
         <v>200</v>
       </c>
-      <c r="E66" s="25" t="s">
+      <c r="E66" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="F66" s="25" t="s">
+      <c r="F66" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G66" s="25">
+      <c r="G66" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D67" s="27">
+      <c r="D67" s="15">
         <v>400</v>
       </c>
-      <c r="E67" s="25" t="s">
+      <c r="E67" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="F67" s="25" t="s">
+      <c r="F67" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G67" s="25">
+      <c r="G67" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D68" s="27">
+      <c r="D68" s="15">
         <v>200</v>
       </c>
-      <c r="E68" s="25" t="s">
+      <c r="E68" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="F68" s="25" t="s">
+      <c r="F68" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G68" s="27">
+      <c r="G68" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="C69" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D69" s="27">
+      <c r="D69" s="15">
         <v>300</v>
       </c>
-      <c r="E69" s="25" t="s">
+      <c r="E69" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="F69" s="25" t="s">
+      <c r="F69" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G69" s="27">
+      <c r="G69" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="D70" s="27">
+      <c r="D70" s="15">
         <v>250</v>
       </c>
-      <c r="E70" s="25" t="s">
+      <c r="E70" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="F70" s="25" t="s">
+      <c r="F70" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G70" s="27">
+      <c r="G70" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D71" s="27">
+      <c r="D71" s="15">
         <v>350</v>
       </c>
-      <c r="E71" s="25" t="s">
+      <c r="E71" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="F71" s="25" t="s">
+      <c r="F71" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G71" s="27">
+      <c r="G71" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C72" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D72" s="27">
+      <c r="D72" s="15">
         <v>550</v>
       </c>
-      <c r="E72" s="25" t="s">
+      <c r="E72" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="F72" s="25" t="s">
+      <c r="F72" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="G72" s="25">
+      <c r="G72" s="15">
         <v>550</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B73" s="25" t="s">
+      <c r="B73" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D73" s="27">
+      <c r="D73" s="15">
         <v>300</v>
       </c>
-      <c r="E73" s="25" t="s">
+      <c r="E73" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="F73" s="25" t="s">
+      <c r="F73" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="G73" s="25">
+      <c r="G73" s="15">
         <v>800</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B74" s="25" t="s">
+      <c r="B74" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="C74" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="D74" s="27">
+      <c r="D74" s="15">
         <v>250</v>
       </c>
-      <c r="E74" s="25" t="s">
+      <c r="E74" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="F74" s="25" t="s">
+      <c r="F74" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="G74" s="25">
+      <c r="G74" s="15">
         <v>850</v>
       </c>
     </row>
     <row r="75" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3316,11 +3455,1462 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF1125A-9401-4FDD-8C79-CE50A848C1A6}">
+  <dimension ref="A1:G96"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="24">
+        <v>50590</v>
+      </c>
+      <c r="E16" s="24">
+        <v>52455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="25">
+        <v>200.00000000000006</v>
+      </c>
+      <c r="E21" s="25">
+        <v>200</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="25">
+        <v>0</v>
+      </c>
+      <c r="E22" s="25">
+        <v>100</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="25">
+        <v>0</v>
+      </c>
+      <c r="E23" s="25">
+        <v>250</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="25">
+        <v>350</v>
+      </c>
+      <c r="E24" s="25">
+        <v>350</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="25">
+        <v>300</v>
+      </c>
+      <c r="E26" s="25">
+        <v>200</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="25">
+        <v>0</v>
+      </c>
+      <c r="E27" s="25">
+        <v>0</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="25">
+        <v>0</v>
+      </c>
+      <c r="E28" s="25">
+        <v>0</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="25">
+        <v>0</v>
+      </c>
+      <c r="E29" s="25">
+        <v>0</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="25">
+        <v>0</v>
+      </c>
+      <c r="E30" s="25">
+        <v>0</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="25">
+        <v>250</v>
+      </c>
+      <c r="E31" s="25">
+        <v>0</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="25">
+        <v>0</v>
+      </c>
+      <c r="E32" s="25">
+        <v>0</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D33" s="25">
+        <v>1</v>
+      </c>
+      <c r="E33" s="25">
+        <v>1</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" s="25">
+        <v>0</v>
+      </c>
+      <c r="E34" s="25">
+        <v>1</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D35" s="25">
+        <v>0</v>
+      </c>
+      <c r="E35" s="25">
+        <v>1</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" s="25">
+        <v>1</v>
+      </c>
+      <c r="E36" s="25">
+        <v>1</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" s="25">
+        <v>100.00000000000009</v>
+      </c>
+      <c r="E37" s="25">
+        <v>200.00000000000003</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="D38" s="25">
+        <v>0</v>
+      </c>
+      <c r="E38" s="25">
+        <v>100.00000000000003</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" s="25">
+        <v>0</v>
+      </c>
+      <c r="E39" s="25">
+        <v>250.00000000000003</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D40" s="25">
+        <v>250</v>
+      </c>
+      <c r="E40" s="25">
+        <v>350</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="25">
+        <v>8.5265128291212022E-14</v>
+      </c>
+      <c r="E41" s="25">
+        <v>300</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="25">
+        <v>0</v>
+      </c>
+      <c r="E42" s="25">
+        <v>0</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="25">
+        <v>0</v>
+      </c>
+      <c r="E43" s="25">
+        <v>0</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="25">
+        <v>0</v>
+      </c>
+      <c r="E44" s="25">
+        <v>5.6843418860808015E-14</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="25">
+        <v>200</v>
+      </c>
+      <c r="E45" s="25">
+        <v>199.99999999999994</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="25">
+        <v>0</v>
+      </c>
+      <c r="E46" s="25">
+        <v>0</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="25">
+        <v>0</v>
+      </c>
+      <c r="E47" s="25">
+        <v>0</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="25">
+        <v>50</v>
+      </c>
+      <c r="E48" s="25">
+        <v>5.6843418860808015E-14</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="25">
+        <v>250</v>
+      </c>
+      <c r="E49" s="25">
+        <v>0</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="25">
+        <v>200</v>
+      </c>
+      <c r="E50" s="25">
+        <v>200</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="25">
+        <v>0</v>
+      </c>
+      <c r="E51" s="25">
+        <v>0</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="25">
+        <v>0</v>
+      </c>
+      <c r="E52" s="25">
+        <v>0</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="25">
+        <v>350</v>
+      </c>
+      <c r="E53" s="25">
+        <v>400</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="25">
+        <v>50</v>
+      </c>
+      <c r="E54" s="25">
+        <v>0</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="25">
+        <v>0</v>
+      </c>
+      <c r="E55" s="25">
+        <v>0</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="25">
+        <v>0</v>
+      </c>
+      <c r="E56" s="25">
+        <v>1</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" s="25">
+        <v>1</v>
+      </c>
+      <c r="E57" s="25">
+        <v>1</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" s="25">
+        <v>1</v>
+      </c>
+      <c r="E58" s="25">
+        <v>0</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" s="25">
+        <v>1</v>
+      </c>
+      <c r="E59" s="25">
+        <v>1</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="25">
+        <v>1</v>
+      </c>
+      <c r="E60" s="25">
+        <v>1</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D61" s="25">
+        <v>1</v>
+      </c>
+      <c r="E61" s="25">
+        <v>1</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" s="25">
+        <v>1</v>
+      </c>
+      <c r="E62" s="25">
+        <v>1</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" s="24">
+        <v>1</v>
+      </c>
+      <c r="E63" s="24">
+        <v>0</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B68" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D68" s="25">
+        <v>200.00000000000003</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F68" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="G68" s="23">
+        <v>149.99999999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B69" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="D69" s="25">
+        <v>100.00000000000003</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="G69" s="23">
+        <v>249.99999999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70" s="25">
+        <v>250.00000000000003</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="G70" s="23">
+        <v>99.999999999999972</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B71" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D71" s="25">
+        <v>350</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G71" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B72" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" s="25">
+        <v>200.00000000000003</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="F72" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="G72" s="25">
+        <v>100.00000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B73" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="D73" s="25">
+        <v>100.00000000000003</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="F73" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G73" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B74" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D74" s="25">
+        <v>250.00000000000003</v>
+      </c>
+      <c r="E74" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="F74" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="G74" s="25">
+        <v>150.00000000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B75" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D75" s="25">
+        <v>350</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="G75" s="25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B76" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C76" s="26">
+        <v>36526</v>
+      </c>
+      <c r="D76" s="25">
+        <v>200.00000000000003</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G76" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B77" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C77" s="26">
+        <v>36526</v>
+      </c>
+      <c r="D77" s="25">
+        <v>100.00000000000003</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G77" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B78" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C78" s="26">
+        <v>36526</v>
+      </c>
+      <c r="D78" s="25">
+        <v>250.00000000000003</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G78" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B79" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C79" s="26">
+        <v>36526</v>
+      </c>
+      <c r="D79" s="25">
+        <v>350</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G79" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B80" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D80" s="25">
+        <v>900</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G80" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B81" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D81" s="25">
+        <v>200</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F81" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G81" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B82" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D82" s="25">
+        <v>0</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="F82" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G82" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B83" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D83" s="25">
+        <v>300</v>
+      </c>
+      <c r="E83" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F83" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G83" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B84" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D84" s="25">
+        <v>200</v>
+      </c>
+      <c r="E84" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F84" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G84" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B85" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D85" s="25">
+        <v>5.6843418860808015E-14</v>
+      </c>
+      <c r="E85" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F85" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G85" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B86" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D86" s="25">
+        <v>200</v>
+      </c>
+      <c r="E86" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F86" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G86" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B87" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D87" s="25">
+        <v>400</v>
+      </c>
+      <c r="E87" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F87" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G87" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B88" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D88" s="25">
+        <v>200</v>
+      </c>
+      <c r="E88" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F88" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G88" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B89" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D89" s="25">
+        <v>300</v>
+      </c>
+      <c r="E89" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G89" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B90" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D90" s="25">
+        <v>250</v>
+      </c>
+      <c r="E90" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F90" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G90" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B91" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C91" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D91" s="25">
+        <v>350</v>
+      </c>
+      <c r="E91" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="F91" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G91" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B92" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D92" s="25">
+        <v>900</v>
+      </c>
+      <c r="E92" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F92" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="G92" s="23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B93" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D93" s="25">
+        <v>200</v>
+      </c>
+      <c r="E93" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F93" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="G93" s="23">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B94" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C94" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D94" s="25">
+        <v>0</v>
+      </c>
+      <c r="E94" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F94" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G94" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B95" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+    </row>
+    <row r="96" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:AD21"/>
+  <dimension ref="B3:AF38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L2" zoomScale="90" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="57" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3344,59 +4934,59 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="P3" s="17" t="s">
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="P3" s="10" t="s">
         <v>17</v>
       </c>
       <c r="Q3" s="3"/>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="8"/>
-      <c r="W3" s="18" t="s">
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="17"/>
+      <c r="W3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="X3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="15" t="s">
+      <c r="Y3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="15" t="s">
+      <c r="Z3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AA3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AC3" s="18" t="s">
+      <c r="AC3" s="11" t="s">
         <v>19</v>
       </c>
       <c r="AD3" s="2" t="s">
@@ -3404,22 +4994,22 @@
       </c>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="2">
         <v>300</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="2">
         <v>200</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="2">
         <v>300</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="2">
         <v>200</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="2">
         <v>400</v>
       </c>
       <c r="I4" s="3"/>
@@ -3447,19 +5037,19 @@
       <c r="U4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="W4" s="15" t="s">
+      <c r="W4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="X4" s="15">
+      <c r="X4" s="2">
         <v>200</v>
       </c>
-      <c r="Y4" s="15">
+      <c r="Y4" s="2">
         <v>300</v>
       </c>
-      <c r="Z4" s="15">
+      <c r="Z4" s="2">
         <v>250</v>
       </c>
-      <c r="AA4" s="15">
+      <c r="AA4" s="2">
         <v>350</v>
       </c>
       <c r="AC4" s="2" t="s">
@@ -3474,16 +5064,16 @@
       <c r="J5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="2">
         <v>8</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="2">
         <v>10</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="2">
         <v>13</v>
       </c>
-      <c r="P5" s="14"/>
+      <c r="P5" s="8"/>
       <c r="Q5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3507,23 +5097,17 @@
       </c>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
       <c r="I6" s="4"/>
       <c r="J6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="2">
         <v>7</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="2">
         <v>5</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="2">
         <v>8</v>
       </c>
       <c r="P6" s="5" t="s">
@@ -3544,11 +5128,7 @@
       <c r="U6" s="2">
         <v>80</v>
       </c>
-      <c r="W6" s="22"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
+      <c r="W6" s="10"/>
       <c r="AC6" s="2" t="s">
         <v>2</v>
       </c>
@@ -3557,25 +5137,19 @@
       </c>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B7" s="21"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
       <c r="I7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="2">
         <v>8</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="2">
         <v>6</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="2">
         <v>7</v>
       </c>
       <c r="P7" s="6"/>
@@ -3594,11 +5168,6 @@
       <c r="U7" s="2">
         <v>60</v>
       </c>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
       <c r="AC7" s="2" t="s">
         <v>3</v>
       </c>
@@ -3611,21 +5180,16 @@
       <c r="J8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="2">
         <v>5</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="2">
         <v>6</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="2">
         <v>8</v>
       </c>
-      <c r="V8" s="28"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
+      <c r="V8" s="16"/>
       <c r="AC8" s="2" t="s">
         <v>4</v>
       </c>
@@ -3638,33 +5202,33 @@
         <v>22</v>
       </c>
       <c r="C9" cm="1">
-        <f t="array" ref="C9">SUM(K5:M9*K13:M17)+SUM(R5:U7*R11:U13)+SUM(AD4:AD11*AD14:AD21)</f>
-        <v>54090</v>
+        <f t="array" ref="C9">SUM(K5:M9*K13:M17)+SUM(R5:U7*R11:U13)+SUM(AD4:AD11*AD14:AD21)-SUM(AD24:AD27*(R5:U5-AA7:AA10))+1000*AD24+4000*AD25+6000*AD26+2000*AD27-10*AD30-40*AD31-60*AD32-20*AD33</f>
+        <v>52455</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="2">
         <v>7</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="2">
         <v>6</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="2">
         <v>10</v>
       </c>
-      <c r="P9" s="17" t="s">
+      <c r="P9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="Q9" s="3"/>
-      <c r="R9" s="10" t="s">
+      <c r="R9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="8"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="17"/>
       <c r="AC9" s="2" t="s">
         <v>5</v>
       </c>
@@ -3687,7 +5251,7 @@
       <c r="U10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V10" s="19" t="s">
+      <c r="V10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AC10" s="2" t="s">
@@ -3698,17 +5262,17 @@
       </c>
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="10" t="s">
         <v>23</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="8"/>
-      <c r="P11" s="14"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="17"/>
+      <c r="P11" s="8"/>
       <c r="Q11" s="1" t="s">
         <v>5</v>
       </c>
@@ -3716,17 +5280,17 @@
         <v>200</v>
       </c>
       <c r="S11" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T11" s="2">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="U11" s="2">
         <v>350</v>
       </c>
       <c r="V11" s="2">
         <f>SUM(R11:U11)</f>
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="AC11" s="2" t="s">
         <v>7</v>
@@ -3737,10 +5301,6 @@
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.3">
       <c r="D12" s="7"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="2" t="s">
@@ -3752,7 +5312,7 @@
       <c r="M12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P12" s="5" t="s">
@@ -3765,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T12" s="2">
         <v>0</v>
@@ -3775,7 +5335,7 @@
       </c>
       <c r="V12" s="2">
         <f t="shared" ref="V12:V13" si="0">SUM(R12:U12)</f>
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.3">
@@ -3783,18 +5343,18 @@
       <c r="J13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K13" s="15">
-        <v>8.5265128291212022E-14</v>
-      </c>
-      <c r="L13" s="15">
-        <v>0</v>
-      </c>
-      <c r="M13" s="15">
+      <c r="K13" s="2">
+        <v>300</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="2">
         <f>SUM(K13:M13)</f>
-        <v>8.5265128291212022E-14</v>
+        <v>300</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="1" t="s">
@@ -3807,16 +5367,16 @@
         <v>0</v>
       </c>
       <c r="T13" s="2">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" s="2">
         <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="AC13" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="11" t="s">
         <v>24</v>
       </c>
       <c r="AD13" s="2" t="s">
@@ -3828,21 +5388,21 @@
       <c r="J14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="15">
-        <v>0</v>
-      </c>
-      <c r="L14" s="15">
-        <v>200.00000000000003</v>
-      </c>
-      <c r="M14" s="15">
+      <c r="K14" s="2">
+        <v>5.6843418860808015E-14</v>
+      </c>
+      <c r="L14" s="2">
+        <v>199.99999999999994</v>
+      </c>
+      <c r="M14" s="2">
         <v>0</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" ref="N14:N17" si="1">SUM(K14:M14)</f>
-        <v>200.00000000000003</v>
+        <v>200</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="19" t="s">
+      <c r="Q14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="R14" s="2">
@@ -3866,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="AD14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.3">
@@ -3876,20 +5436,19 @@
       <c r="J15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="15">
-        <v>50</v>
-      </c>
-      <c r="M15" s="15">
-        <v>250</v>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>5.6843418860808015E-14</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="V15" s="13"/>
+        <v>5.6843418860808015E-14</v>
+      </c>
       <c r="AC15" s="2" t="s">
         <v>1</v>
       </c>
@@ -3902,13 +5461,13 @@
       <c r="J16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="2">
         <v>200</v>
       </c>
-      <c r="L16" s="15">
-        <v>0</v>
-      </c>
-      <c r="M16" s="15">
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
         <v>0</v>
       </c>
       <c r="N16" s="2">
@@ -3919,22 +5478,22 @@
         <v>2</v>
       </c>
       <c r="AD16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="8:30" x14ac:dyDescent="0.3">
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="8:32" x14ac:dyDescent="0.3">
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
       <c r="J17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="15">
-        <v>350.00000000000006</v>
-      </c>
-      <c r="L17" s="15">
-        <v>49.999999999999972</v>
-      </c>
-      <c r="M17" s="15">
+      <c r="K17" s="2">
+        <v>400</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
         <v>0</v>
       </c>
       <c r="N17" s="2">
@@ -3948,23 +5507,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="8:30" x14ac:dyDescent="0.3">
-      <c r="H18" s="20"/>
+    <row r="18" spans="8:32" x14ac:dyDescent="0.3">
+      <c r="H18" s="12"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K18" s="2">
         <f>SUM(K13:K17)</f>
-        <v>550.00000000000011</v>
+        <v>900</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" ref="L18:M18" si="3">SUM(L13:L17)</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="N18" s="2">
         <v>0</v>
@@ -3976,7 +5535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="8:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:32" x14ac:dyDescent="0.3">
       <c r="AC19" s="2" t="s">
         <v>5</v>
       </c>
@@ -3984,7 +5543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="8:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:32" x14ac:dyDescent="0.3">
       <c r="AC20" s="2" t="s">
         <v>6</v>
       </c>
@@ -3992,12 +5551,136 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="8:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:32" x14ac:dyDescent="0.3">
       <c r="AC21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="AD21" s="2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="8:32" x14ac:dyDescent="0.3">
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
+    </row>
+    <row r="24" spans="8:32" x14ac:dyDescent="0.3">
+      <c r="AC24" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <f>AD24*100</f>
+        <v>100</v>
+      </c>
+      <c r="AF24">
+        <f>350*AD24</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="8:32" x14ac:dyDescent="0.3">
+      <c r="AC25" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" ref="AE25:AE27" si="4">AD25*100</f>
+        <v>100</v>
+      </c>
+      <c r="AF25">
+        <f>350*AD25</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="8:32" x14ac:dyDescent="0.3">
+      <c r="AC26" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="AF26">
+        <f>350*AD26</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="27" spans="8:32" x14ac:dyDescent="0.3">
+      <c r="AC27" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="AF27">
+        <f>350*AD27</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="30" spans="8:32" x14ac:dyDescent="0.3">
+      <c r="AC30" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>200.00000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="8:32" x14ac:dyDescent="0.3">
+      <c r="AC31" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>100.00000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="8:32" x14ac:dyDescent="0.3">
+      <c r="AC32" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>250.00000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="29:30" x14ac:dyDescent="0.3">
+      <c r="AC33" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="35" spans="29:30" x14ac:dyDescent="0.3">
+      <c r="AD35">
+        <f>100*(1-AD24)+AD30</f>
+        <v>200.00000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="29:30" x14ac:dyDescent="0.3">
+      <c r="AD36">
+        <f>100*(1-AD25)+AD31</f>
+        <v>100.00000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="29:30" x14ac:dyDescent="0.3">
+      <c r="AD37">
+        <f>100*(1-AD26)+AD32</f>
+        <v>250.00000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="29:30" x14ac:dyDescent="0.3">
+      <c r="AD38">
+        <f>100*(1-AD27)+AD33</f>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
